--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3363121.018468228</v>
+        <v>3360785.907266248</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.05510538238496</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.2636416850876</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>120.33325546674</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866106</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>233.6967540543188</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45885325319731</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.8488061766259</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>391.4025790744359</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>192.1675620474802</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1217.950988797912</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2500.667504781584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2291.921863387409</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2291.921863387409</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1960.858976043838</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.090320773724</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1608.090320773724</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1217.950988797912</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
         <v>51.2467865680031</v>
@@ -4486,25 +4486,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1514.8973771788</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.8973771788</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1225.779039682638</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>971.0945514767509</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>681.6773814397902</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>453.6878305417729</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1973.513345802446</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>196.9593607670919</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1471.952376461744</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1217.267888255857</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W7" t="n">
-        <v>927.850718218896</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X7" t="n">
-        <v>699.8611673208786</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>378.6078255973316</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211463</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211463</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>503.8651556719429</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5598,22 +5598,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6680,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.7511347056852</v>
       </c>
       <c r="O3" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.797847849056639e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>694003.8812816654</v>
+        <v>694003.8812816653</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778541</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778546</v>
@@ -26320,40 +26320,40 @@
         <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744235</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744268</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744337</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744308</v>
-      </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744266</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744266</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744322</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-604274.1001148932</v>
+        <v>-604274.1001148929</v>
       </c>
       <c r="C6" t="n">
         <v>510477.6834610268</v>
       </c>
       <c r="D6" t="n">
-        <v>350462.2207130284</v>
+        <v>350462.2207130286</v>
       </c>
       <c r="E6" t="n">
-        <v>291169.6916979986</v>
+        <v>291134.953772563</v>
       </c>
       <c r="F6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799185</v>
       </c>
       <c r="G6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="H6" t="n">
-        <v>616582.1535053538</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="I6" t="n">
-        <v>616582.1535053537</v>
+        <v>616547.4155799184</v>
       </c>
       <c r="J6" t="n">
-        <v>448976.9756953716</v>
+        <v>448942.2377699355</v>
       </c>
       <c r="K6" t="n">
-        <v>616582.1535053541</v>
+        <v>616547.4155799185</v>
       </c>
       <c r="L6" t="n">
-        <v>568288.1834971631</v>
+        <v>568253.4455717275</v>
       </c>
       <c r="M6" t="n">
-        <v>531527.1255698421</v>
+        <v>531492.3876444062</v>
       </c>
       <c r="N6" t="n">
-        <v>616582.153505354</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="O6" t="n">
-        <v>616582.1535053537</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="P6" t="n">
-        <v>616582.1535053541</v>
+        <v>616547.4155799182</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.39711001640942</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>74.32920489499753</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362319</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136.0343466241503</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.7879678454305</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>123.3783479445748</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>19.51914657901756</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>94.0442761581327</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>718.5832682008314</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985592</v>
       </c>
       <c r="O3" t="n">
-        <v>521.873694610508</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.015880398027</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>587.2415561174981</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
